--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_beg.xlsx
@@ -1004,11 +1004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  “It’s precisely because there are times we don’t get enough food on the table or even clothes to keep ourselves warm that things like songs, music, fruits, and flower, and our desire for all the things that delight our taste buds, our eyesight, and our sense of smell are so important.” 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  “These are the things that remind us what we are fighting for: we’re fighting so that everyone can lead a decent life.” 
+    <t xml:space="preserve">[name="Alina"]  'It’s precisely because there are times we don’t get enough food on the table or even clothes to keep ourselves warm that things like songs, music, fruits, and flower, and our desire for all the things that delight our taste buds, our eyesight, and our sense of smell are so important.' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  'These are the things that remind us what we are fighting for: we’re fighting so that everyone can lead a decent life.' 
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Hey now... Cheating? That’s quite a serious charge, isn’t it? Here, say it after me: “That’s smart!”
+    <t xml:space="preserve">[name="Alina"]  Hey now... Cheating? That’s quite a serious charge, isn’t it? Here, say it after me: 'That’s smart!'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_beg.xlsx
@@ -864,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t know how much further I have to go.
+    <t xml:space="preserve">I don't know how much further I have to go.
 </t>
   </si>
   <si>
@@ -872,19 +872,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s still very cold here, but it shouldn’t be much longer until it starts to get warmer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s been three weeks. We’ve finally found two more villages willing to trade with the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’ve set up camp at an abandoned settlement a few kilometers away from them. There’s plenty of fuel here to last us a while.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can’t imagine how awful tree bark tastes. I don’t ever want to listen to the old man tell me how nutritious they are anymore.
+    <t xml:space="preserve">It's still very cold here, but it shouldn't be much longer until it starts to get warmer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's been three weeks. We've finally found two more villages willing to trade with the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've set up camp at an abandoned settlement a few kilometers away from them. There's plenty of fuel here to last us a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can't imagine how awful tree bark tastes. I don't ever want to listen to the old man tell me how nutritious they are anymore.
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Nonetheless, we have to get to the end of the road. Even if I don’t make it, Yelena, Alina, and Eno and Sasha as well... I am sure they will make it.
+    <t xml:space="preserve">Nonetheless, we have to get to the end of the road. Even if I don't make it, Yelena, Alina, and Eno and Sasha as well... I am sure they will make it.
 </t>
   </si>
   <si>
@@ -904,15 +904,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Will they reject us? We can’t bring their hopes up too much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s a bad thing to make a promise you cannot fulfill. The Ursus Empire’s promise about bread and bed was nothing more than a ruse to cover up their atrocities and lies. And lies are what lead to tyranny.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will they come to loathe us? It’s very likely. If it wasn’t for how hard life is in the Northern Plains, people here would probably report the Infected to the Patrol Unit the moment they spotted them.
+    <t xml:space="preserve">Will they reject us? We can't bring their hopes up too much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a bad thing to make a promise you cannot fulfill. The Ursus Empire's promise about bread and bed was nothing more than a ruse to cover up their atrocities and lies. And lies are what lead to tyranny.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will they come to loathe us? It's very likely. If it wasn't for how hard life is in the Northern Plains, people here would probably report the Infected to the Patrol Unit the moment they spotted them.
 </t>
   </si>
   <si>
@@ -920,15 +920,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m not like Buldrokkas'tee. We certainly need to be on the lookout and avoid that, but I don’t believe that’s in their nature.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We can’t hold it against them just because they want to look out for themselves. Definitely not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will they try to hurt us? I have no idea. And it’s probably not something I can worry about too much...
+    <t xml:space="preserve">I'm not like Buldrokkas'tee. We certainly need to be on the lookout and avoid that, but I don't believe that's in their nature.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can't hold it against them just because they want to look out for themselves. Definitely not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will they try to hurt us? I have no idea. And it's probably not something I can worry about too much...
 </t>
   </si>
   <si>
@@ -936,15 +936,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If they had a teacher like Alina, a team like ours, or the chance to live in harmony with Infected... I’m sure things would improve.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most of them were simply brainwashed by Ursus’s twisted ideology. We can help them. Knowledge can change the way people think.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s just... it’s a really difficult thing to do. That’s even though I believe... if you always hold fast to your beliefs in your actions, getting everyone to accept the truth should be one of the simplest things to accomplish.
+    <t xml:space="preserve">If they had a teacher like Alina, a team like ours, or the chance to live in harmony with Infected... I'm sure things would improve.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of them were simply brainwashed by Ursus's twisted ideology. We can help them. Knowledge can change the way people think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's just... it's a really difficult thing to do. That's even though I believe... if you always hold fast to your beliefs in your actions, getting everyone to accept the truth should be one of the simplest things to accomplish.
 </t>
   </si>
   <si>
@@ -956,7 +956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Wouldn’t it be dangerous for you to head outside right now?
+    <t xml:space="preserve">[name="Talulah"]  Wouldn't it be dangerous for you to head outside right now?
 </t>
   </si>
   <si>
@@ -964,15 +964,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s not impossible. Anyway, you should stay away from the west. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I know. I’ll go to the village to the east instead. I should still be able to barter for some things there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Oh, you don’t need to worry so much. Remember, we used to find ourselves in situations much more dangerous.
+    <t xml:space="preserve">[name="Talulah"]  It's not impossible. Anyway, you should stay away from the west. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I know. I'll go to the village to the east instead. I should still be able to barter for some things there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Oh, you don't need to worry so much. Remember, we used to find ourselves in situations much more dangerous.
 </t>
   </si>
   <si>
@@ -988,15 +988,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Our fighters will get sick if things don’t improve soon. It’s about time you pick up a few things about taking care of yourself... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We’re having trouble just getting enough food to feed ourselves. I really don’t think we should go out of our way for....
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Now, Talulah, that’s not right.
+    <t xml:space="preserve">[name="Alina"]  Our fighters will get sick if things don't improve soon. It's about time you pick up a few things about taking care of yourself... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We're having trouble just getting enough food to feed ourselves. I really don't think we should go out of our way for....
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Now, Talulah, that's not right.
 </t>
   </si>
   <si>
@@ -1004,11 +1004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  'It’s precisely because there are times we don’t get enough food on the table or even clothes to keep ourselves warm that things like songs, music, fruits, and flower, and our desire for all the things that delight our taste buds, our eyesight, and our sense of smell are so important.' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  'These are the things that remind us what we are fighting for: we’re fighting so that everyone can lead a decent life.' 
+    <t xml:space="preserve">[name="Alina"]  'It's precisely because there are times we don't get enough food on the table or even clothes to keep ourselves warm that things like songs, music, fruits, and flower, and our desire for all the things that delight our taste buds, our eyesight, and our sense of smell are so important.' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  'These are the things that remind us what we are fighting for: we're fighting so that everyone can lead a decent life.' 
 </t>
   </si>
   <si>
@@ -1016,11 +1016,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  ...Rebutting me with my own words... That’s cheating.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Hey now... Cheating? That’s quite a serious charge, isn’t it? Here, say it after me: 'That’s smart!'
+    <t xml:space="preserve">[name="Talulah"]  ...Rebutting me with my own words... That's cheating.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Hey now... Cheating? That's quite a serious charge, isn't it? Here, say it after me: 'That's smart!'
 </t>
   </si>
   <si>
@@ -1032,27 +1032,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  That probably isn’t a good idea. I may be Infected, but I am not that special. I wouldn’t want anyone to find out about us just because of me. Besides, it isn’t too hard for me to hide my infection. Easier than for some of our soldiers.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Okay, but you should still be careful. I don’t think we can completely trust the villagers there... There are a lot of things that don’t add up there. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Yep, okay. Oh, I’ll try to get us some pears too. Or do you reckon the Yetis like apples more?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I think they are more of a fan of raspberries... but let’s not worry about them. They know how to look for those themselves. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ve got a meeting now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Okay, I’m leaving.
+    <t xml:space="preserve">[name="Alina"]  That probably isn't a good idea. I may be Infected, but I am not that special. I wouldn't want anyone to find out about us just because of me. Besides, it isn't too hard for me to hide my infection. Easier than for some of our soldiers.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Okay, but you should still be careful. I don't think we can completely trust the villagers there... There are a lot of things that don't add up there. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Yep, okay. Oh, I'll try to get us some pears too. Or do you reckon the Yetis like apples more?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I think they are more of a fan of raspberries... but let's not worry about them. They know how to look for those themselves. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I've got a meeting now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Okay, I'm leaving.
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  What’s up?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m thinking about putting together an Infected education group. Would you like to run it?
+    <t xml:space="preserve">[name="Alina"]  What's up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm thinking about putting together an Infected education group. Would you like to run it?
 </t>
   </si>
   <si>
@@ -1076,11 +1076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It’ll be easier for me to introduce you to everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s not what I mean...
+    <t xml:space="preserve">[name="Talulah"]  It'll be easier for me to introduce you to everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's not what I mean...
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I’ll leave the decision to you. I don’t need to write up any speeches or anything, do I? 
+    <t xml:space="preserve">[name="Alina"]  I'll leave the decision to you. I don't need to write up any speeches or anything, do I? 
 </t>
   </si>
   <si>
@@ -1100,19 +1100,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  ...Stop teasing me. Okay, I’ll get going now. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  See you later. Don’t stay out too late! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  That won’t work. We need to hang them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  The captain isn’t around right now, but I know that’s what he’d order us to do.
+    <t xml:space="preserve">[name="Alina"]  ...Stop teasing me. Okay, I'll get going now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  See you later. Don't stay out too late! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  That won't work. We need to hang them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  The captain isn't around right now, but I know that's what he'd order us to do.
 </t>
   </si>
   <si>
@@ -1120,11 +1120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It gives a bad impression. When they first joined us, it was because they trusted us. They only started having doubts because of hunger. That’s the only reason they made this mistake. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It only happened because we didn’t keep our end of the bargain.
+    <t xml:space="preserve">[name="Talulah"]  It gives a bad impression. When they first joined us, it was because they trusted us. They only started having doubts because of hunger. That's the only reason they made this mistake. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It only happened because we didn't keep our end of the bargain.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  ...Not everyone came here for a noble end. That’s not realistic. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We could’ve earned even more of their trust if we had the machines exchanged for the provisions sooner.
+    <t xml:space="preserve">[name="Talulah"]  ...Not everyone came here for a noble end. That's not realistic. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We could've earned even more of their trust if we had the machines exchanged for the provisions sooner.
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I won’t tolerate any excessive violence. Also, give them enough rations for a week before you exile them.
+    <t xml:space="preserve">[name="Talulah"]  I won't tolerate any excessive violence. Also, give them enough rations for a week before you exile them.
 </t>
   </si>
   <si>
@@ -1164,11 +1164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We’re not going to give in on this one. It has nothing to do with achievements or whatever. We simply can’t abide by their behavior. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Fine. At least don’t go overboard with the language. Don’t chew them out too much.  
+    <t xml:space="preserve">[name="Shieldguard"]  We're not going to give in on this one. It has nothing to do with achievements or whatever. We simply can't abide by their behavior. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Fine. At least don't go overboard with the language. Don't chew them out too much.  
 </t>
   </si>
   <si>
@@ -1180,15 +1180,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Now that the patrols are trying to smoke us out to the west... we can’t let them find the group of Infected there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  That’s all the more reason to put these bastards over...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Hm? Someone’s knocking. 
+    <t xml:space="preserve">[name="Shieldguard"]  Now that the patrols are trying to smoke us out to the west... we can't let them find the group of Infected there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  That's all the more reason to put these bastards over...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Hm? Someone's knocking. 
 </t>
   </si>
   <si>
@@ -1204,11 +1204,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  It’s the Patrol Unit! They’re investigating the village that traded food with us! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  Should we get out of here? If we leave now, we’ll be long gone by the time they found out about us! 
+    <t xml:space="preserve">[name="Infected Fighter"]  It's the Patrol Unit! They're investigating the village that traded food with us! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Should we get out of here? If we leave now, we'll be long gone by the time they found out about us! 
 </t>
   </si>
   <si>
@@ -1216,23 +1216,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Draw the patrol unit our way. I’ll ambush them somewhere close by. We must let the patrol squad think we’re behind it all, even if we have to leave our tracks behind for them to find. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Talulah! Think this through again! The Fourth Army’s sentries are just ten kilometers away. Once they get word from the patrols about us, they will definitely come after us!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If the villages are pillaged because they gave us a helping hand... No, suppose they didn’t. If they come in harm’s way because of us, the Infected, we’ll never find another village willing to trade with us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  Then let’s take it upon ourselves to keep the news from spreading.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  That’s exactly how word about this gets out!
+    <t xml:space="preserve">[name="Talulah"]  Draw the patrol unit our way. I'll ambush them somewhere close by. We must let the patrol squad think we're behind it all, even if we have to leave our tracks behind for them to find. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah! Think this through again! The Fourth Army's sentries are just ten kilometers away. Once they get word from the patrols about us, they will definitely come after us!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If the villages are pillaged because they gave us a helping hand... No, suppose they didn't. If they come in harm's way because of us, the Infected, we'll never find another village willing to trade with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Then let's take it upon ourselves to keep the news from spreading.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That's exactly how word about this gets out!
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  If you want to keep any bad news about us from spreading, then there’s only one way to go about it: Don’t let anything bad happen in the first place.
+    <t xml:space="preserve">[name="Talulah"]  If you want to keep any bad news about us from spreading, then there's only one way to go about it: Don't let anything bad happen in the first place.
 </t>
   </si>
   <si>
@@ -1252,11 +1252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  You have a point. Let’s do that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Let’s go.
+    <t xml:space="preserve">[name="Infected Fighter"]  You have a point. Let's do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let's go.
 </t>
   </si>
   <si>
@@ -1264,11 +1264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We have a tough battle ahead of us. I’ll be fighting alongside you, but neither FrostNova and Patriot are here with us; remember, one day, you may not even have me fighting next to you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  But as long as what you are fighting for is just and feasible, then we don’t need anyone else by our side. You don’t need anyone by your side. 
+    <t xml:space="preserve">[name="Talulah"]  We have a tough battle ahead of us. I'll be fighting alongside you, but neither FrostNova and Patriot are here with us; remember, one day, you may not even have me fighting next to you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But as long as what you are fighting for is just and feasible, then we don't need anyone else by our side. You don't need anyone by your side. 
 </t>
   </si>
   <si>
